--- a/src/test/java/ApachePOI/SchoolDepartment.xlsx
+++ b/src/test/java/ApachePOI/SchoolDepartment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senol\IdeaProjects\merys.io-Ben\src\test\java\ApachePOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB33A33-D845-476D-9A6E-5083EE99E1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0FAC1-7170-4311-A425-0F3206F0D5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23064" yWindow="48" windowWidth="23160" windowHeight="12288" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Lion</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>kimler</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Sdet</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -708,15 +720,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880A4848-AB55-44AA-B8FB-466DE2F41C5A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -724,7 +736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -732,12 +744,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
